--- a/dlfiles/Bang-Cong-Excel.xlsx
+++ b/dlfiles/Bang-Cong-Excel.xlsx
@@ -4366,38 +4366,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="hello.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="hello.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="17410" t="23187" r="14149" b="21835"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="0"/>
-          <a:ext cx="1189555" cy="838200"/>
+          <a:off x="533400" y="133350"/>
+          <a:ext cx="800100" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4409,38 +4414,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>560705</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="hello.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="hello.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="17410" t="23187" r="14149" b="21835"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="152400"/>
-          <a:ext cx="1189355" cy="838200"/>
+          <a:off x="457200" y="209550"/>
+          <a:ext cx="800100" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4739,11 +4749,11 @@
   <dimension ref="A1:BN87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AQ41" sqref="AQ41"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17295,11 +17305,11 @@
   <dimension ref="A1:BB80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="J72" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
